--- a/output/Total_time_range_data/内蒙古自治区/鄂尔多斯市_学习考察.xlsx
+++ b/output/Total_time_range_data/内蒙古自治区/鄂尔多斯市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,158 +436,175 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>内蒙古省</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>鄂尔多斯市</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>鄂尔多斯市红十字会系统赴巴彦淖尔市和榆林市</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2019-07-26</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.ordos.gov.cn/gk_128120/gysy/201907/t20190726_2538083.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['7月18日至20日，为扎实推进“不忘初心、牢记使命”主题教育，深入贯彻自治区党委、市委关于“大学习大讨论”的有关要求，市红十字会党组书记、常务副会长闫美蓉带领全市各旗区红十字会常务副会长、副会长赴巴彦淖尔市和陕西省榆林市分别对博爱家园和青少年眼健康项目进行考察学习。', '7月18日，考察组一行分别参观了巴彦淖尔市五原县农村牧区和城市社区的红十字博爱家园项目。五原县红十字会负责人和村社区红十字会负责人就两个项目的硬件建设和生计金发放情况进行了详细介绍。考察组的成员分别就两地博爱家园的建设情况和运行情况进行深入了解和实地考察。', '新公中镇团结村“博爱家园”项目是中国红十字会总会援建项目，项目总投资62万元，其中，中国红十字会总会援助资金27万元，五原县配套资金35万元，硬件建设投入42万元，软件建设投入10万元，生计金发放10万元。项目硬件建设内容为改善农村人畜饮水工程，从2013年以来，已累计发放6批生计金，循环资助了团结村60户农民发展生产，受助农户累计拿出3万元帮助了村内的100户贫困户。', '丰裕办事处丰华村“丰裕田园综合体”是自治区级博爱家园项目，项目总投资25万元，其中县红十字会投入博爱资金20万元，市、区红十字会分别投入奖补资金3万元和2万元，硬件建设10万元，建设了红十字文化广场，生计基金11万元，组织建设0.5万元，软件建设3.5万元。', '通过考察，各旗区红十字会考察人员认为各地要因地制宜，围绕防灾减灾、群众需求、利于群众生产生活、能够改善村民生活条件的项目来实施博爱家园项目，从而进一步提升红十字组织的公信力、知晓率和社会影响力。', '7月19日，考察组一行赴陕西省榆林市对青少年眼健康项目进行学习交流。我市从2017年率先提出实施青少年眼健康项目，并于2108年获得全市“五位一体”考核创新奖。榆林市2108年开始实施青少年眼健康项目，在短时间内收到了良好的社会效果。考察组一行对榆林旭永眼科医院实施青少年眼健康基地进行了实地考察。榆林市慈善协会、榆阳区教育局和学校有关负责人分别就榆林市青少年眼健康项目的实施过程、社会效应进行了汇报，鄂尔多斯市红十字会就青少年眼健康项目取得的一些好的做法和经验做了现场交流。考察期间，鄂尔多斯市红十字会和榆林市慈善协会达成一致共识，两地在青少年眼健康项目和红十字会等慈善项目上，相互借鉴，相互学习，相互帮助，取长补短，为守护青少年的光明和帮助社会弱势群体做出应有的贡献。', '通过此次“大学习大讨论”活动，全市各旗区红十字会不仅丰富了知识，开阔了视野，打开了思路，为今后工作开展奠定了良好的基础。考察结束后，市红十字会党组成员、副会长邵文迪要求全市各旗区红十字会要进一步提高政治站位，坚持问题导向，抓好博爱家园项目落实进度，尽快制定计划和项目实施方案，确保高质量完成工作任务。各旗区在实施博爱家园项目的过程中，要围绕中心，服务大局，服务群众，紧紧围绕当前脱贫攻坚、乡村振兴等重点工作开展工作，奋力开创鄂尔多斯市红十字工作新局面。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>内蒙古省</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>鄂尔多斯市</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>鄂尔多斯市红十字会应邀</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2019-07-16</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.ordos.gov.cn/gk_128120/gysy/201907/t20190716_2538081.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['2019年6月26日至6月30日，应蒙古国红十字会邀请，鄂尔多斯市红十字会党组书记、常务副会长闫美蓉一行三人访问了蒙古国，深入乌兰巴托市、达尔罕乌拉省交流学习考察红十字工作。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>30</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>内蒙古省</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>鄂尔多斯市</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>四川省卫生健康委一行到鄂尔多斯市</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2019-09-05</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.ordos.gov.cn/gk_128120/shjz/yljz/201909/t20190905_2497574.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['9月5日，四川省卫生健康委一行6人到鄂尔多斯市学习考察，自治区卫生健康委、市卫生健康委相关负责人及其他在家领导陪同考察。', '考察组通过查阅资料、实地查看、听取汇报的方式对鄂尔多斯市健康扶贫和民族卫生工作进行学习考察。考察组实地走访了市蒙医医院，详细了解蒙医医疗、科研、教学、蒙药制剂等民族卫生工作发展情况，以及蒙医药文化传承、发扬等方面工作情况。随后，又深入伊金霍洛旗伊金霍洛镇、扎萨克镇调研民族卫生、健康扶贫及基层卫生人才工作。在座谈会上，双方就健康扶贫、医政医管、蒙中医发展、对口支援、基层卫生人才队伍建设、医学会、医药卫生体制改革、疾病预防控制、人口发展和老年健康等方面进行深入交流。', '考察组对鄂尔多斯市在健康扶贫和民族卫生工作方面的经验和做法表示肯定，并希望今后能进一步加强交流沟通，取长补短，相互学习借鉴，促进共同进步，为广大患者提供更加优质高效的医疗服务。', '近年来，在国家、自治区的正确领导下，鄂尔多斯市认真落实国家、自治区决策部署，以健康鄂尔多斯建设为主线，紧紧围绕全面深化医药卫生体制改革、促进人口均衡发展等重点任务，攻坚克难，开拓进取，在卫生健康各项工作取得了积极进展。先后被确定为国家第二批城市公立医院改革试点城市、国家第一批医养结合试点城市、国家流动人口健康促进示范市、创建幸福家庭示范市、国家城市医疗联合体建设试点、全国社会心理服务体系建设试点，2所医院列入建立健全现代医院管理制度国家试点医院，3所列入自治区试点。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>30</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>内蒙古省</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>鄂尔多斯市</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>迁安市政协</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2019-06-27</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.ordos.gov.cn/gk_128120/shjz/yljz/201906/t20190627_2497323.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['迁安市政协学习考察团莅临东胜区疾病预防控制中心观摩交流_鄂尔多斯市人民政府', '6月25日上午，迁安市政协学习考察团深入东胜区疾病预防控制中心观摩交流，区政协、卫健委相关领导陪同考察。', '东胜区疾病预防控制中心相关人员结合工作实际，就东胜区疾病预防控制中心近几年服务能力建设、重大传染病防控、卫生防疫应急管理、实验室能力建设等亮点工作作了详尽介绍。考察团一行深入中心业务大厅、健康科普专区、党建长廊、卫生应急储备库、未病中心进行了实地观摩，现场观摩了健康小屋打造、健康步道、膳食宝塔等创新做法。', '通过考察，学习考察团表示，东胜区疾病预防控制中心的创新做法令人耳目一新，为兄弟单位提供了重要的参考和借鉴，一定将好的经验好的做法带回去，为当地卫生防控事业注入新的活力。']</t>
         </is>
